--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,43 +35,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트를 새로 만들 떄마다 호출되는 클래스 생성자 메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 랜더링 메소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>배열의 첫 번째 원소는 현재 상태, 두 번째 원소는 상태를 바꾸어 주는 함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>useState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>constructor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트를 새로 만들 떄마다 호출되는 클래스 생성자 메소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDerivedStateFromProps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>props에 있는 값을 state에 넣을 때 사용하는 메소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>render</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 랜더링 메소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>componentDidMount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트가 웹브라우저상에 나타난후 호출 하는 메소드</t>
+    <t>Hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트가 랜더링 될떄 마다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,44 +447,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B17" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,23 @@
   </si>
   <si>
     <t>컴포넌트가 랜더링 될떄 마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concat </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열이나 값들을 기존 배열에 합쳐서 새 배열을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...이 함수 호출 시 사용되면 배열을 목록으로 확장해주는 "전개 연산자"입니다.
+...이 함수 매개변수의 끝에 있으면 인수 목록의 나머지를 배열로 모아주는 "나머지 매개변수"입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,9 +131,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +442,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,12 +475,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +59,6 @@
   </si>
   <si>
     <t>Hook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +80,30 @@
   <si>
     <t>...이 함수 호출 시 사용되면 배열을 목록으로 확장해주는 "전개 연산자"입니다.
 ...이 함수 매개변수의 끝에 있으면 인수 목록의 나머지를 배열로 모아주는 "나머지 매개변수"입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 객체는 요소의 삽입 순서대로 원소를 순회합니다. for...of 반복문은 각 순회에서 [key, value]로 이루어진 배열을 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수를 재사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>props 로 값을 전달해야할 함수를 만들때 useCallback을 함께 사용해야한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,16 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="67.375" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,10 +497,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,10 +513,18 @@
     </row>
     <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,12 +540,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,32 +78,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 객체는 요소의 삽입 순서대로 원소를 순회합니다. for...of 반복문은 각 순회에서 [key, value]로 이루어진 배열을 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수를 재사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>props 로 값을 전달해야할 함수를 만들때 useCallback을 함께 사용해야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React.memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트의 props가 바뀌지 않앗다면 리렌더링 안하도록 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>...이 함수 호출 시 사용되면 배열을 목록으로 확장해주는 "전개 연산자"입니다.
-...이 함수 매개변수의 끝에 있으면 인수 목록의 나머지를 배열로 모아주는 "나머지 매개변수"입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map 객체는 요소의 삽입 순서대로 원소를 순회합니다. for...of 반복문은 각 순회에서 [key, value]로 이루어진 배열을 반환합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함수를 재사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>props 로 값을 전달해야할 함수를 만들때 useCallback을 함께 사용해야한다</t>
+...이 함수 매개변수의 끝에 있으면 인수 목록의 나머지를 배열로 모아주는 "나머지 매개변수"입니다. (배열 복사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,15 +524,15 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +550,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -550,13 +558,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,22 @@
   <si>
     <t>...이 함수 호출 시 사용되면 배열을 목록으로 확장해주는 "전개 연산자"입니다.
 ...이 함수 매개변수의 끝에 있으면 인수 목록의 나머지를 배열로 모아주는 "나머지 매개변수"입니다. (배열 복사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">immer </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불변성 유지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import produce from 'immer';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce 함수  첫벗쨰 파라미터 수정하고 싶은 상태 두 번쨰 파라미터는 상태 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,6 +493,7 @@
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="67.375" customWidth="1"/>
     <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -556,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -567,12 +584,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t>produce 함수  첫벗쨰 파라미터 수정하고 싶은 상태 두 번쨰 파라미터는 상태 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn creat react-app 설치할 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn add react-router-dom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cra 프로젝트 기본설정 보이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m'Commit before eject'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn eject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류시 git init 으로 먼저 세팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,6 +640,43 @@
       </c>
       <c r="D24" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/자바스크립트 메소드.xlsx
+++ b/자바스크립트 메소드.xlsx
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
